--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -78,6 +78,120 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>TipoA</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>unidad nueva</t>
+  </si>
+  <si>
+    <t>Nuevo MacroZ</t>
+  </si>
+  <si>
+    <t>Nuevo Proceso</t>
+  </si>
+  <si>
+    <t>AmenazaA</t>
+  </si>
+  <si>
+    <t>Desc A</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Es muy alto</t>
+  </si>
+  <si>
+    <t>Riesgo Testseo</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>2023-04-26 13:33:09.000000</t>
+  </si>
+  <si>
+    <t>RARO</t>
+  </si>
+  <si>
+    <t>INSIGNIFICANTE</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>2023-04-26 13:34:55.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:12:23.000000</t>
+  </si>
+  <si>
+    <t>Ries testeoA</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:12:25.000000</t>
+  </si>
+  <si>
+    <t>Riesgo de tester</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:12:27.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:20:20.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:20:25.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:26:38.000000</t>
+  </si>
+  <si>
+    <t>Riesgo esceA</t>
+  </si>
+  <si>
+    <t>POSIBLE</t>
+  </si>
+  <si>
+    <t>CATASTROFICO</t>
+  </si>
+  <si>
+    <t>EXTREMO</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:26:40.000000</t>
+  </si>
+  <si>
+    <t>TipoBB</t>
+  </si>
+  <si>
+    <t>Testteando</t>
+  </si>
+  <si>
+    <t>MUY PROBABLE</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>MENOR</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:26:43.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:31:23.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:31:28.000000</t>
   </si>
 </sst>
 </file>
@@ -443,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -553,6 +667,726 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>3750</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>3750</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+      <c r="R10">
+        <v>2500</v>
+      </c>
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11">
+        <v>2.5</v>
+      </c>
+      <c r="R11">
+        <v>2500</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17">
+        <v>2.5</v>
+      </c>
+      <c r="R17">
+        <v>2500</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <v>60000</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -192,6 +192,45 @@
   </si>
   <si>
     <t>2023-04-26 18:31:28.000000</t>
+  </si>
+  <si>
+    <t>RiesgoA</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:05.000000</t>
+  </si>
+  <si>
+    <t>RiesgoB</t>
+  </si>
+  <si>
+    <t>MODERADO</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:08.000000</t>
+  </si>
+  <si>
+    <t>RiesgoC</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:09.000000</t>
+  </si>
+  <si>
+    <t>IMPROBABLE</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:44.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:46.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:49.000000</t>
+  </si>
+  <si>
+    <t>RiesgoD</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:52.000000</t>
   </si>
 </sst>
 </file>
@@ -557,7 +596,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -1387,6 +1426,428 @@
         <v>58</v>
       </c>
     </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>2500</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20">
+        <v>4.5</v>
+      </c>
+      <c r="R20">
+        <v>7500</v>
+      </c>
+      <c r="S20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21">
+        <v>1.25</v>
+      </c>
+      <c r="R21">
+        <v>22500</v>
+      </c>
+      <c r="S21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -192,6 +192,96 @@
   </si>
   <si>
     <t>2023-04-26 18:31:28.000000</t>
+  </si>
+  <si>
+    <t>RiesgoA</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:05.000000</t>
+  </si>
+  <si>
+    <t>RiesgoB</t>
+  </si>
+  <si>
+    <t>MODERADO</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:08.000000</t>
+  </si>
+  <si>
+    <t>RiesgoC</t>
+  </si>
+  <si>
+    <t>2023-04-26 18:44:09.000000</t>
+  </si>
+  <si>
+    <t>IMPROBABLE</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:44.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:46.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:49.000000</t>
+  </si>
+  <si>
+    <t>RiesgoD</t>
+  </si>
+  <si>
+    <t>2023-04-26 19:06:52.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 20:28:30.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 20:28:31.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 20:56:01.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 20:56:02.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:03:15.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:03:16.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:22:08.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:31:15.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:31:16.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:33:11.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:33:12.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 21:33:13.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:28:42.000000</t>
+  </si>
+  <si>
+    <t>MAYOR</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:28:43.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:31:03.000000</t>
+  </si>
+  <si>
+    <t>2023-04-26 22:31:04.000000</t>
   </si>
 </sst>
 </file>
@@ -557,7 +647,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -1387,6 +1477,2068 @@
         <v>58</v>
       </c>
     </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>2500</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20">
+        <v>4.5</v>
+      </c>
+      <c r="R20">
+        <v>7500</v>
+      </c>
+      <c r="S20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21">
+        <v>1.25</v>
+      </c>
+      <c r="R21">
+        <v>22500</v>
+      </c>
+      <c r="S21" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
+        <v>2500</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27">
+        <v>1.25</v>
+      </c>
+      <c r="R27">
+        <v>22500</v>
+      </c>
+      <c r="S27" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28">
+        <v>1.25</v>
+      </c>
+      <c r="R28">
+        <v>12500</v>
+      </c>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29">
+        <v>2.5</v>
+      </c>
+      <c r="R29">
+        <v>2500</v>
+      </c>
+      <c r="S29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30">
+        <v>4.5</v>
+      </c>
+      <c r="R30">
+        <v>7500</v>
+      </c>
+      <c r="S30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31">
+        <v>1.25</v>
+      </c>
+      <c r="R31">
+        <v>22500</v>
+      </c>
+      <c r="S31" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32">
+        <v>1.25</v>
+      </c>
+      <c r="R32">
+        <v>12500</v>
+      </c>
+      <c r="S32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2500</v>
+      </c>
+      <c r="S33" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34">
+        <v>4.5</v>
+      </c>
+      <c r="R34">
+        <v>7500</v>
+      </c>
+      <c r="S34" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35">
+        <v>1.25</v>
+      </c>
+      <c r="R35">
+        <v>22500</v>
+      </c>
+      <c r="S35" t="s">
+        <v>62</v>
+      </c>
+      <c r="T35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36">
+        <v>1.25</v>
+      </c>
+      <c r="R36">
+        <v>12500</v>
+      </c>
+      <c r="S36" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37">
+        <v>2.5</v>
+      </c>
+      <c r="R37">
+        <v>2500</v>
+      </c>
+      <c r="S37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="R38">
+        <v>2500</v>
+      </c>
+      <c r="S38" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39">
+        <v>4.5</v>
+      </c>
+      <c r="R39">
+        <v>7500</v>
+      </c>
+      <c r="S39" t="s">
+        <v>49</v>
+      </c>
+      <c r="T39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40">
+        <v>1.25</v>
+      </c>
+      <c r="R40">
+        <v>22500</v>
+      </c>
+      <c r="S40" t="s">
+        <v>49</v>
+      </c>
+      <c r="T40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41">
+        <v>1.25</v>
+      </c>
+      <c r="R41">
+        <v>12500</v>
+      </c>
+      <c r="S41" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42">
+        <v>2.5</v>
+      </c>
+      <c r="R42">
+        <v>2500</v>
+      </c>
+      <c r="S42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43">
+        <v>4.5</v>
+      </c>
+      <c r="R43">
+        <v>7500</v>
+      </c>
+      <c r="S43" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44">
+        <v>1.25</v>
+      </c>
+      <c r="R44">
+        <v>22500</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45">
+        <v>1.25</v>
+      </c>
+      <c r="R45">
+        <v>12500</v>
+      </c>
+      <c r="S45" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R48" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>34</v>
+      </c>
+      <c r="R49" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>2500</v>
+      </c>
+      <c r="S50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>4.5</v>
+      </c>
+      <c r="R51">
+        <v>7500</v>
+      </c>
+      <c r="S51" t="s">
+        <v>62</v>
+      </c>
+      <c r="T51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>1.25</v>
+      </c>
+      <c r="R52">
+        <v>22500</v>
+      </c>
+      <c r="S52" t="s">
+        <v>62</v>
+      </c>
+      <c r="T52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53">
+        <v>1.25</v>
+      </c>
+      <c r="R53">
+        <v>12500</v>
+      </c>
+      <c r="S53" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -228,6 +228,153 @@
   </si>
   <si>
     <t>2023-04-28 11:42:22.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:06.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:10.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:14.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:19.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:23.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:26.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:30.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:34.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:39.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:43.000000</t>
+  </si>
+  <si>
+    <t>RiesgoTesteoA</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:47.000000</t>
+  </si>
+  <si>
+    <t>RiesgotetseoB</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:50.000000</t>
+  </si>
+  <si>
+    <t>RiesgoTetseoC</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:55.000000</t>
+  </si>
+  <si>
+    <t>RiesgoControlAA</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:57.000000</t>
+  </si>
+  <si>
+    <t>RiesgoControlBB</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:09:59.000000</t>
+  </si>
+  <si>
+    <t>RiesgoControlAAA</t>
+  </si>
+  <si>
+    <t>CASI CERTEZA</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:10:01.000000</t>
+  </si>
+  <si>
+    <t>RiesgoControlBBB</t>
+  </si>
+  <si>
+    <t>CATASTROFICO</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>2023-04-29 16:10:03.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:53:23.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:53:35.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:53:37.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:53:56.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:04.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:10.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:19.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:26.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:35.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:41.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:48.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:54:54.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:00.000000</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:07.000000</t>
+  </si>
+  <si>
+    <t>RiesgoCC</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:21.000000</t>
+  </si>
+  <si>
+    <t>RiesgoDD</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:25.000000</t>
+  </si>
+  <si>
+    <t>RiesgoEE</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:27.000000</t>
+  </si>
+  <si>
+    <t>RiesfoFF</t>
+  </si>
+  <si>
+    <t>2023-04-29 17:55:29.000000</t>
   </si>
 </sst>
 </file>
@@ -593,7 +740,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -1903,6 +2050,2104 @@
         <v>70</v>
       </c>
     </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>89</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O42" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>92</v>
+      </c>
+      <c r="R43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44">
+        <v>3.75</v>
+      </c>
+      <c r="R44">
+        <v>5000</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45">
+        <v>4.5</v>
+      </c>
+      <c r="R45">
+        <v>7500</v>
+      </c>
+      <c r="S45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>30000</v>
+      </c>
+      <c r="S46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>11250</v>
+      </c>
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q48">
+        <v>4.5</v>
+      </c>
+      <c r="R48">
+        <v>10000</v>
+      </c>
+      <c r="S48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49">
+        <v>2.5</v>
+      </c>
+      <c r="R49">
+        <v>2500</v>
+      </c>
+      <c r="S49" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>3750</v>
+      </c>
+      <c r="S50" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51">
+        <v>1.5</v>
+      </c>
+      <c r="R51">
+        <v>2000</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52">
+        <v>4.5</v>
+      </c>
+      <c r="R52">
+        <v>1250</v>
+      </c>
+      <c r="S52" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" t="s">
+        <v>81</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53">
+        <v>3.75</v>
+      </c>
+      <c r="R53">
+        <v>5000</v>
+      </c>
+      <c r="S53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>7500</v>
+      </c>
+      <c r="S54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" t="s">
+        <v>85</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55">
+        <v>6.25</v>
+      </c>
+      <c r="R55">
+        <v>10000</v>
+      </c>
+      <c r="S55" t="s">
+        <v>44</v>
+      </c>
+      <c r="T55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q56">
+        <v>3.75</v>
+      </c>
+      <c r="R56">
+        <v>15000</v>
+      </c>
+      <c r="S56" t="s">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" t="s">
+        <v>89</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q57">
+        <v>6.25</v>
+      </c>
+      <c r="R57">
+        <v>30000</v>
+      </c>
+      <c r="S57" t="s">
+        <v>43</v>
+      </c>
+      <c r="T57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" t="s">
+        <v>112</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58">
+        <v>7.5</v>
+      </c>
+      <c r="R58">
+        <v>7500</v>
+      </c>
+      <c r="S58" t="s">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" t="s">
+        <v>114</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q59">
+        <v>26.25</v>
+      </c>
+      <c r="R59">
+        <v>30000</v>
+      </c>
+      <c r="S59" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60">
+        <v>7.5</v>
+      </c>
+      <c r="R60">
+        <v>25000</v>
+      </c>
+      <c r="S60" t="s">
+        <v>43</v>
+      </c>
+      <c r="T60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" t="s">
+        <v>118</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>20000</v>
+      </c>
+      <c r="S61" t="s">
+        <v>43</v>
+      </c>
+      <c r="T61" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:R2"/>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Es muy alto</t>
+    <t>aeaea</t>
   </si>
   <si>
     <t>ReisgoA</t>
@@ -230,151 +230,271 @@
     <t>2023-04-28 11:42:22.000000</t>
   </si>
   <si>
-    <t>2023-04-29 16:09:06.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:10.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:14.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:19.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:23.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:26.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:30.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:34.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:39.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:43.000000</t>
-  </si>
-  <si>
-    <t>RiesgoTesteoA</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:47.000000</t>
-  </si>
-  <si>
-    <t>RiesgotetseoB</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:50.000000</t>
-  </si>
-  <si>
-    <t>RiesgoTetseoC</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:55.000000</t>
-  </si>
-  <si>
-    <t>RiesgoControlAA</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:57.000000</t>
-  </si>
-  <si>
-    <t>RiesgoControlBB</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:09:59.000000</t>
-  </si>
-  <si>
-    <t>RiesgoControlAAA</t>
-  </si>
-  <si>
-    <t>CASI CERTEZA</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:10:01.000000</t>
-  </si>
-  <si>
-    <t>RiesgoControlBBB</t>
-  </si>
-  <si>
-    <t>CATASTROFICO</t>
-  </si>
-  <si>
-    <t>NO APLICA</t>
-  </si>
-  <si>
-    <t>2023-04-29 16:10:03.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:53:23.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:53:35.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:53:37.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:53:56.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:04.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:10.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:19.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:26.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:35.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:41.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:48.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:54:54.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:00.000000</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:07.000000</t>
-  </si>
-  <si>
-    <t>RiesgoCC</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:21.000000</t>
-  </si>
-  <si>
-    <t>RiesgoDD</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:25.000000</t>
-  </si>
-  <si>
-    <t>RiesgoEE</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:27.000000</t>
-  </si>
-  <si>
-    <t>RiesfoFF</t>
-  </si>
-  <si>
-    <t>2023-04-29 17:55:29.000000</t>
+    <t>2023-05-03 16:40:55.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:56.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:57.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:58.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:59.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:00.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:01.000000</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:03.000000</t>
+  </si>
+  <si>
+    <t>asdada</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:29.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:30.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:31.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:32.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:33.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:34.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:35.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:36.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:11.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:16.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:17.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:11.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:16.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:17.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:18.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:35.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:37.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:38.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:39.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:40.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:41.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:42.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:43.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:44.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:46.000000</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:47.000000</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:48.000000</t>
+  </si>
+  <si>
+    <t>ASD1231</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:56.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:57.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:58.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:59.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:00.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:01.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:03.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:04.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:05.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:06.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:07.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:08.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:38.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:39.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:40.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:41.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:42.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:43.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:44.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:45.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:47.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:48.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:49.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:50.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:03.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:05.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:06.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:07.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:08.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:09.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:16.000000</t>
   </si>
 </sst>
 </file>
@@ -740,7 +860,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -2543,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="T34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2581,7 +2701,7 @@
         <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M35" t="s">
         <v>57</v>
@@ -2693,7 +2813,7 @@
         <v>26</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -2705,31 +2825,31 @@
         <v>29</v>
       </c>
       <c r="L37" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M37" t="s">
         <v>81</v>
       </c>
-      <c r="N37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" t="s">
-        <v>33</v>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <v>0.25</v>
+      </c>
+      <c r="R37">
+        <v>0.5</v>
       </c>
       <c r="S37" t="s">
         <v>37</v>
       </c>
       <c r="T37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2770,28 +2890,24 @@
         <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" t="s">
-        <v>36</v>
+      <c r="Q38">
+        <v>3.75</v>
+      </c>
+      <c r="R38">
+        <v>5000</v>
       </c>
       <c r="S38" t="s">
         <v>37</v>
       </c>
       <c r="T38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2832,28 +2948,24 @@
         <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>85</v>
-      </c>
-      <c r="N39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="P39" t="s">
         <v>34</v>
       </c>
-      <c r="Q39" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" t="s">
-        <v>36</v>
+      <c r="Q39">
+        <v>4.5</v>
+      </c>
+      <c r="R39">
+        <v>7500</v>
       </c>
       <c r="S39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2894,28 +3006,24 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>87</v>
-      </c>
-      <c r="N40" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" t="s">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="P40" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" t="s">
-        <v>33</v>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>30000</v>
       </c>
       <c r="S40" t="s">
         <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2956,28 +3064,24 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>89</v>
-      </c>
-      <c r="N41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" t="s">
-        <v>33</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>35</v>
-      </c>
-      <c r="R41" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>7500</v>
       </c>
       <c r="S41" t="s">
         <v>44</v>
       </c>
       <c r="T41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3018,28 +3122,24 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" t="s">
-        <v>92</v>
-      </c>
-      <c r="O42" t="s">
-        <v>33</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
       <c r="P42" t="s">
         <v>44</v>
       </c>
-      <c r="Q42" t="s">
-        <v>92</v>
-      </c>
-      <c r="R42" t="s">
-        <v>36</v>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>11250</v>
       </c>
       <c r="S42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3080,28 +3180,24 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>94</v>
-      </c>
-      <c r="N43" t="s">
-        <v>92</v>
-      </c>
-      <c r="O43" t="s">
-        <v>95</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>92</v>
-      </c>
-      <c r="R43" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="Q43">
+        <v>4.5</v>
+      </c>
+      <c r="R43">
+        <v>10000</v>
       </c>
       <c r="S43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3142,24 +3238,24 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q44">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R44">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="S44" t="s">
         <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3200,24 +3296,24 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q45">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="S45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3255,27 +3351,27 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R46">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="S46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3316,24 +3412,24 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R47">
-        <v>11250</v>
+        <v>1250</v>
       </c>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3359,7 +3455,7 @@
         <v>26</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3371,27 +3467,27 @@
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q48">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>10000</v>
+        <v>0.5</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T48" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3432,24 +3528,28 @@
         <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>52</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <v>20000</v>
+      </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q49">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R49">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="S49" t="s">
         <v>37</v>
       </c>
       <c r="T49" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3490,24 +3590,28 @@
         <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>55</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>30000</v>
+      </c>
       <c r="P50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="R50">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="S50" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T50" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3548,24 +3652,28 @@
         <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>57</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51"/>
+        <v>41</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>30000</v>
+      </c>
       <c r="P51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>30000</v>
+      </c>
+      <c r="S51" t="s">
         <v>44</v>
       </c>
-      <c r="Q51">
-        <v>1.5</v>
-      </c>
-      <c r="R51">
-        <v>2000</v>
-      </c>
-      <c r="S51" t="s">
-        <v>37</v>
-      </c>
       <c r="T51" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3606,24 +3714,28 @@
         <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
+        <v>46</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>10000</v>
+      </c>
       <c r="P52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q52">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>1250</v>
+        <v>7500</v>
       </c>
       <c r="S52" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3664,24 +3776,28 @@
         <v>30</v>
       </c>
       <c r="M53" t="s">
-        <v>81</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>48</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>15000</v>
+      </c>
       <c r="P53" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q53">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>5000</v>
+        <v>11250</v>
       </c>
       <c r="S53" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3722,24 +3838,28 @@
         <v>30</v>
       </c>
       <c r="M54" t="s">
-        <v>83</v>
-      </c>
-      <c r="N54"/>
-      <c r="O54"/>
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>40000</v>
+      </c>
       <c r="P54" t="s">
         <v>34</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R54">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="S54" t="s">
         <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3780,24 +3900,28 @@
         <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>85</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>52</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>10000</v>
+      </c>
       <c r="P55" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q55">
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
       <c r="R55">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="S55" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T55" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -3838,24 +3962,28 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>87</v>
-      </c>
-      <c r="N56"/>
-      <c r="O56"/>
+        <v>55</v>
+      </c>
+      <c r="N56">
+        <v>8</v>
+      </c>
+      <c r="O56">
+        <v>15000</v>
+      </c>
       <c r="P56" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q56">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="S56" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T56" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -3893,27 +4021,31 @@
         <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M57" t="s">
-        <v>89</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>8000</v>
+      </c>
       <c r="P57" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q57">
-        <v>6.25</v>
+        <v>1.5</v>
       </c>
       <c r="R57">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="S57" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T57" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -3954,24 +4086,28 @@
         <v>30</v>
       </c>
       <c r="M58" t="s">
-        <v>112</v>
-      </c>
-      <c r="N58"/>
-      <c r="O58"/>
+        <v>59</v>
+      </c>
+      <c r="N58">
+        <v>18</v>
+      </c>
+      <c r="O58">
+        <v>5000</v>
+      </c>
       <c r="P58" t="s">
         <v>43</v>
       </c>
       <c r="Q58">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="R58">
-        <v>7500</v>
+        <v>1250</v>
       </c>
       <c r="S58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T58" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -3997,7 +4133,7 @@
         <v>26</v>
       </c>
       <c r="H59">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -4009,27 +4145,31 @@
         <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M59" t="s">
-        <v>114</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>81</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
       <c r="P59" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="Q59">
-        <v>26.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>30000</v>
+        <v>0.5</v>
       </c>
       <c r="S59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T59" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4070,24 +4210,26 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
+      <c r="O60">
+        <v>20000</v>
+      </c>
       <c r="P60" t="s">
         <v>34</v>
       </c>
       <c r="Q60">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="R60">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="S60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T60" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4128,24 +4270,4038 @@
         <v>30</v>
       </c>
       <c r="M61" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="N61"/>
-      <c r="O61"/>
+      <c r="O61">
+        <v>30000</v>
+      </c>
       <c r="P61" t="s">
         <v>34</v>
       </c>
       <c r="Q61">
+        <v>4.5</v>
+      </c>
+      <c r="R61">
+        <v>7500</v>
+      </c>
+      <c r="S61" t="s">
+        <v>44</v>
+      </c>
+      <c r="T61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62">
+        <v>30000</v>
+      </c>
+      <c r="P62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>30000</v>
+      </c>
+      <c r="S62" t="s">
+        <v>44</v>
+      </c>
+      <c r="T62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63">
+        <v>10000</v>
+      </c>
+      <c r="P63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>7500</v>
+      </c>
+      <c r="S63" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" t="s">
+        <v>48</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64">
+        <v>15000</v>
+      </c>
+      <c r="P64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>11250</v>
+      </c>
+      <c r="S64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65">
+        <v>40000</v>
+      </c>
+      <c r="P65" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>10000</v>
+      </c>
+      <c r="S65" t="s">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
+      </c>
+      <c r="M66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66">
+        <v>10000</v>
+      </c>
+      <c r="P66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2500</v>
+      </c>
+      <c r="S66" t="s">
+        <v>37</v>
+      </c>
+      <c r="T66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M67" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67">
+        <v>15000</v>
+      </c>
+      <c r="P67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>3750</v>
+      </c>
+      <c r="S67" t="s">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68">
+        <v>8000</v>
+      </c>
+      <c r="P68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68">
+        <v>1.5</v>
+      </c>
+      <c r="R68">
+        <v>2000</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69">
+        <v>5000</v>
+      </c>
+      <c r="P69" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q69">
+        <v>4.5</v>
+      </c>
+      <c r="R69">
+        <v>1250</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="s">
+        <v>81</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>0.5</v>
+      </c>
+      <c r="S70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>20000</v>
+      </c>
+      <c r="P71" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q71">
+        <v>3.75</v>
+      </c>
+      <c r="R71">
+        <v>5000</v>
+      </c>
+      <c r="S71" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72">
+        <v>18</v>
+      </c>
+      <c r="O72">
+        <v>30000</v>
+      </c>
+      <c r="P72" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q72">
+        <v>4.5</v>
+      </c>
+      <c r="R72">
+        <v>7500</v>
+      </c>
+      <c r="S72" t="s">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73">
+        <v>8</v>
+      </c>
+      <c r="O73">
+        <v>30000</v>
+      </c>
+      <c r="P73" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>30000</v>
+      </c>
+      <c r="S73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>10000</v>
+      </c>
+      <c r="P74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>7500</v>
+      </c>
+      <c r="S74" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>15000</v>
+      </c>
+      <c r="P75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>11250</v>
+      </c>
+      <c r="S75" t="s">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" t="s">
+        <v>50</v>
+      </c>
+      <c r="N76">
+        <v>18</v>
+      </c>
+      <c r="O76">
+        <v>40000</v>
+      </c>
+      <c r="P76" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76">
+        <v>4.5</v>
+      </c>
+      <c r="R76">
+        <v>10000</v>
+      </c>
+      <c r="S76" t="s">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77">
         <v>10</v>
       </c>
-      <c r="R61">
+      <c r="O77">
+        <v>10000</v>
+      </c>
+      <c r="P77" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2500</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" t="s">
+        <v>55</v>
+      </c>
+      <c r="N78">
+        <v>8</v>
+      </c>
+      <c r="O78">
+        <v>15000</v>
+      </c>
+      <c r="P78" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>3750</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>8000</v>
+      </c>
+      <c r="P79" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79">
+        <v>1.5</v>
+      </c>
+      <c r="R79">
+        <v>2000</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" t="s">
+        <v>59</v>
+      </c>
+      <c r="N80">
+        <v>18</v>
+      </c>
+      <c r="O80">
+        <v>5000</v>
+      </c>
+      <c r="P80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q80">
+        <v>4.5</v>
+      </c>
+      <c r="R80">
+        <v>1250</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
+      <c r="M81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81">
+        <v>0.25</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>0.5</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" t="s">
+        <v>119</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <v>0.5</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" t="s">
+        <v>119</v>
+      </c>
+      <c r="L84" t="s">
+        <v>78</v>
+      </c>
+      <c r="M84" t="s">
+        <v>121</v>
+      </c>
+      <c r="N84" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q84">
+        <v>0.5</v>
+      </c>
+      <c r="R84">
+        <v>0.5</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85">
+        <v>15</v>
+      </c>
+      <c r="O85">
         <v>20000</v>
       </c>
-      <c r="S61" t="s">
+      <c r="P85" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q85">
+        <v>3.75</v>
+      </c>
+      <c r="R85">
+        <v>5000</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86">
+        <v>18</v>
+      </c>
+      <c r="O86">
+        <v>30000</v>
+      </c>
+      <c r="P86" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86">
+        <v>4.5</v>
+      </c>
+      <c r="R86">
+        <v>7500</v>
+      </c>
+      <c r="S86" t="s">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87">
+        <v>8</v>
+      </c>
+      <c r="O87">
+        <v>30000</v>
+      </c>
+      <c r="P87" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>30000</v>
+      </c>
+      <c r="S87" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" t="s">
+        <v>46</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>10000</v>
+      </c>
+      <c r="P88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>7500</v>
+      </c>
+      <c r="S88" t="s">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89">
+        <v>132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" t="s">
+        <v>48</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>15000</v>
+      </c>
+      <c r="P89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>11250</v>
+      </c>
+      <c r="S89" t="s">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90">
+        <v>23</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" t="s">
+        <v>50</v>
+      </c>
+      <c r="N90">
+        <v>18</v>
+      </c>
+      <c r="O90">
+        <v>40000</v>
+      </c>
+      <c r="P90" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90">
+        <v>4.5</v>
+      </c>
+      <c r="R90">
+        <v>10000</v>
+      </c>
+      <c r="S90" t="s">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" t="s">
+        <v>52</v>
+      </c>
+      <c r="N91">
+        <v>10</v>
+      </c>
+      <c r="O91">
+        <v>10000</v>
+      </c>
+      <c r="P91" t="s">
         <v>43</v>
       </c>
-      <c r="T61" t="s">
+      <c r="Q91">
+        <v>2.5</v>
+      </c>
+      <c r="R91">
+        <v>2500</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" t="s">
+        <v>29</v>
+      </c>
+      <c r="L92" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92">
+        <v>8</v>
+      </c>
+      <c r="O92">
+        <v>15000</v>
+      </c>
+      <c r="P92" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>3750</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93">
+        <v>136</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93">
+        <v>23</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93" t="s">
+        <v>78</v>
+      </c>
+      <c r="M93" t="s">
+        <v>57</v>
+      </c>
+      <c r="N93">
+        <v>6</v>
+      </c>
+      <c r="O93">
+        <v>8000</v>
+      </c>
+      <c r="P93" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q93">
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <v>2000</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94">
+        <v>137</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" t="s">
+        <v>29</v>
+      </c>
+      <c r="L94" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94" t="s">
+        <v>59</v>
+      </c>
+      <c r="N94">
+        <v>18</v>
+      </c>
+      <c r="O94">
+        <v>5000</v>
+      </c>
+      <c r="P94" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q94">
+        <v>4.5</v>
+      </c>
+      <c r="R94">
+        <v>1250</v>
+      </c>
+      <c r="S94" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M95" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>0.5</v>
+      </c>
+      <c r="S95" t="s">
+        <v>37</v>
+      </c>
+      <c r="T95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>0.5</v>
+      </c>
+      <c r="S96" t="s">
+        <v>37</v>
+      </c>
+      <c r="T96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" t="s">
         <v>119</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>0.5</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" t="s">
+        <v>119</v>
+      </c>
+      <c r="L98" t="s">
+        <v>78</v>
+      </c>
+      <c r="M98" t="s">
+        <v>121</v>
+      </c>
+      <c r="N98" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q98">
+        <v>0.5</v>
+      </c>
+      <c r="R98">
+        <v>0.5</v>
+      </c>
+      <c r="S98" t="s">
+        <v>37</v>
+      </c>
+      <c r="T98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+      <c r="O99">
+        <v>20000</v>
+      </c>
+      <c r="P99" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q99">
+        <v>3.75</v>
+      </c>
+      <c r="R99">
+        <v>5000</v>
+      </c>
+      <c r="S99" t="s">
+        <v>37</v>
+      </c>
+      <c r="T99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" t="s">
+        <v>29</v>
+      </c>
+      <c r="L100" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" t="s">
+        <v>39</v>
+      </c>
+      <c r="N100">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>30000</v>
+      </c>
+      <c r="P100" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100">
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <v>7500</v>
+      </c>
+      <c r="S100" t="s">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" t="s">
+        <v>29</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101">
+        <v>8</v>
+      </c>
+      <c r="O101">
+        <v>30000</v>
+      </c>
+      <c r="P101" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>30000</v>
+      </c>
+      <c r="S101" t="s">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102">
+        <v>23</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" t="s">
+        <v>29</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>10000</v>
+      </c>
+      <c r="P102" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>7500</v>
+      </c>
+      <c r="S102" t="s">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" t="s">
+        <v>48</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>15000</v>
+      </c>
+      <c r="P103" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>11250</v>
+      </c>
+      <c r="S103" t="s">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104">
+        <v>23</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>29</v>
+      </c>
+      <c r="L104" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" t="s">
+        <v>50</v>
+      </c>
+      <c r="N104">
+        <v>18</v>
+      </c>
+      <c r="O104">
+        <v>40000</v>
+      </c>
+      <c r="P104" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104">
+        <v>4.5</v>
+      </c>
+      <c r="R104">
+        <v>10000</v>
+      </c>
+      <c r="S104" t="s">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" t="s">
+        <v>29</v>
+      </c>
+      <c r="L105" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" t="s">
+        <v>52</v>
+      </c>
+      <c r="N105">
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>10000</v>
+      </c>
+      <c r="P105" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q105">
+        <v>2.5</v>
+      </c>
+      <c r="R105">
+        <v>2500</v>
+      </c>
+      <c r="S105" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" t="s">
+        <v>55</v>
+      </c>
+      <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
+        <v>15000</v>
+      </c>
+      <c r="P106" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>3750</v>
+      </c>
+      <c r="S106" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>23</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" t="s">
+        <v>78</v>
+      </c>
+      <c r="M107" t="s">
+        <v>57</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <v>8000</v>
+      </c>
+      <c r="P107" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q107">
+        <v>1.5</v>
+      </c>
+      <c r="R107">
+        <v>2000</v>
+      </c>
+      <c r="S107" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108">
+        <v>23</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" t="s">
+        <v>59</v>
+      </c>
+      <c r="N108">
+        <v>18</v>
+      </c>
+      <c r="O108">
+        <v>5000</v>
+      </c>
+      <c r="P108" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q108">
+        <v>4.5</v>
+      </c>
+      <c r="R108">
+        <v>1250</v>
+      </c>
+      <c r="S108" t="s">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" t="s">
+        <v>78</v>
+      </c>
+      <c r="M109" t="s">
+        <v>81</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
+        <v>0.5</v>
+      </c>
+      <c r="S109" t="s">
+        <v>37</v>
+      </c>
+      <c r="T109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110">
+        <v>23</v>
+      </c>
+      <c r="I110" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" t="s">
+        <v>117</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110">
+        <v>0.25</v>
+      </c>
+      <c r="R110">
+        <v>0.5</v>
+      </c>
+      <c r="S110" t="s">
+        <v>37</v>
+      </c>
+      <c r="T110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111">
+        <v>0.25</v>
+      </c>
+      <c r="R111">
+        <v>0.5</v>
+      </c>
+      <c r="S111" t="s">
+        <v>37</v>
+      </c>
+      <c r="T111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112">
+        <v>23</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" t="s">
+        <v>119</v>
+      </c>
+      <c r="L112" t="s">
+        <v>78</v>
+      </c>
+      <c r="M112" t="s">
+        <v>121</v>
+      </c>
+      <c r="N112" t="s">
+        <v>35</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>0.5</v>
+      </c>
+      <c r="S112" t="s">
+        <v>37</v>
+      </c>
+      <c r="T112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113">
+        <v>15</v>
+      </c>
+      <c r="O113">
+        <v>20000</v>
+      </c>
+      <c r="P113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113">
+        <v>3.75</v>
+      </c>
+      <c r="R113">
+        <v>5000</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+      <c r="T113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114">
+        <v>23</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+      <c r="O114">
+        <v>30000</v>
+      </c>
+      <c r="P114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q114">
+        <v>4.5</v>
+      </c>
+      <c r="R114">
+        <v>7500</v>
+      </c>
+      <c r="S114" t="s">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>29</v>
+      </c>
+      <c r="L115" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115">
+        <v>8</v>
+      </c>
+      <c r="O115">
+        <v>30000</v>
+      </c>
+      <c r="P115" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>30000</v>
+      </c>
+      <c r="S115" t="s">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" t="s">
+        <v>46</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116">
+        <v>10000</v>
+      </c>
+      <c r="P116" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>7500</v>
+      </c>
+      <c r="S116" t="s">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117">
+        <v>23</v>
+      </c>
+      <c r="I117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" t="s">
+        <v>29</v>
+      </c>
+      <c r="L117" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" t="s">
+        <v>48</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>15000</v>
+      </c>
+      <c r="P117" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q117">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>11250</v>
+      </c>
+      <c r="S117" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>23</v>
+      </c>
+      <c r="I118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" t="s">
+        <v>29</v>
+      </c>
+      <c r="L118" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" t="s">
+        <v>50</v>
+      </c>
+      <c r="N118">
+        <v>18</v>
+      </c>
+      <c r="O118">
+        <v>40000</v>
+      </c>
+      <c r="P118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118">
+        <v>4.5</v>
+      </c>
+      <c r="R118">
+        <v>10000</v>
+      </c>
+      <c r="S118" t="s">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" t="s">
+        <v>52</v>
+      </c>
+      <c r="N119">
+        <v>10</v>
+      </c>
+      <c r="O119">
+        <v>10000</v>
+      </c>
+      <c r="P119" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q119">
+        <v>2.5</v>
+      </c>
+      <c r="R119">
+        <v>2500</v>
+      </c>
+      <c r="S119" t="s">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" t="s">
+        <v>55</v>
+      </c>
+      <c r="N120">
+        <v>8</v>
+      </c>
+      <c r="O120">
+        <v>15000</v>
+      </c>
+      <c r="P120" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>3750</v>
+      </c>
+      <c r="S120" t="s">
+        <v>37</v>
+      </c>
+      <c r="T120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121">
+        <v>23</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" t="s">
+        <v>78</v>
+      </c>
+      <c r="M121" t="s">
+        <v>57</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121">
+        <v>8000</v>
+      </c>
+      <c r="P121" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q121">
+        <v>1.5</v>
+      </c>
+      <c r="R121">
+        <v>2000</v>
+      </c>
+      <c r="S121" t="s">
+        <v>37</v>
+      </c>
+      <c r="T121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122">
+        <v>23</v>
+      </c>
+      <c r="I122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" t="s">
+        <v>59</v>
+      </c>
+      <c r="N122">
+        <v>18</v>
+      </c>
+      <c r="O122">
+        <v>5000</v>
+      </c>
+      <c r="P122" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q122">
+        <v>4.5</v>
+      </c>
+      <c r="R122">
+        <v>1250</v>
+      </c>
+      <c r="S122" t="s">
+        <v>37</v>
+      </c>
+      <c r="T122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123">
+        <v>166</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" t="s">
+        <v>78</v>
+      </c>
+      <c r="M123" t="s">
+        <v>81</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>0.5</v>
+      </c>
+      <c r="S123" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124">
+        <v>167</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124">
+        <v>23</v>
+      </c>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" t="s">
+        <v>117</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>0.5</v>
+      </c>
+      <c r="S124" t="s">
+        <v>37</v>
+      </c>
+      <c r="T124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" t="s">
+        <v>119</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>2</v>
+      </c>
+      <c r="P125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>0.5</v>
+      </c>
+      <c r="S125" t="s">
+        <v>37</v>
+      </c>
+      <c r="T125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126">
+        <v>23</v>
+      </c>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" t="s">
+        <v>119</v>
+      </c>
+      <c r="L126" t="s">
+        <v>78</v>
+      </c>
+      <c r="M126" t="s">
+        <v>121</v>
+      </c>
+      <c r="N126" t="s">
+        <v>35</v>
+      </c>
+      <c r="O126" t="s">
+        <v>60</v>
+      </c>
+      <c r="P126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>0.5</v>
+      </c>
+      <c r="S126" t="s">
+        <v>37</v>
+      </c>
+      <c r="T126" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/evaluacion_riesgo_historial.xlsx
+++ b/evaluacion_riesgo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>Reporte Evaluación de Riesgo</t>
   </si>
@@ -80,259 +80,430 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>TipoRiesgoA</t>
-  </si>
-  <si>
-    <t>Efectiva SA</t>
-  </si>
-  <si>
-    <t>AreaA</t>
-  </si>
-  <si>
-    <t>UnidadA</t>
-  </si>
-  <si>
-    <t>MacroA</t>
-  </si>
-  <si>
-    <t>ProceA</t>
-  </si>
-  <si>
-    <t>AMENAZAA</t>
-  </si>
-  <si>
-    <t>AMEDESCA</t>
-  </si>
-  <si>
-    <t>CATA</t>
-  </si>
-  <si>
-    <t>CATDESCA</t>
-  </si>
-  <si>
-    <t>RIESGOA</t>
+    <t>TipoA</t>
+  </si>
+  <si>
+    <t>Financiera Efectiva</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>unidad nueva</t>
+  </si>
+  <si>
+    <t>Nuevo MacroZ</t>
+  </si>
+  <si>
+    <t>Nuevo Proceso</t>
+  </si>
+  <si>
+    <t>AmenazaA</t>
+  </si>
+  <si>
+    <t>Desc A</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>aeaea</t>
+  </si>
+  <si>
+    <t>ReisgoA</t>
+  </si>
+  <si>
+    <t>MUY PROBABLE</t>
+  </si>
+  <si>
+    <t>MAYOR</t>
+  </si>
+  <si>
+    <t>EXTREMO</t>
   </si>
   <si>
     <t>RARO</t>
   </si>
   <si>
-    <t>PROBABLE</t>
+    <t>INSIGNIFICANTE</t>
+  </si>
+  <si>
+    <t>BAJO</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:34:41.000000</t>
+  </si>
+  <si>
+    <t>RiesgoB</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:34:47.000000</t>
+  </si>
+  <si>
+    <t>RiesgoC</t>
+  </si>
+  <si>
+    <t>IMPROBABLE</t>
   </si>
   <si>
     <t>ALTO</t>
   </si>
   <si>
-    <t>IMPROBABLE</t>
-  </si>
-  <si>
-    <t>MEDIO</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:43:21.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:45:48.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:47:08.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:47:53.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:49:53.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:55:11.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 18:56:26.000000</t>
-  </si>
-  <si>
-    <t>RIESGOB</t>
-  </si>
-  <si>
-    <t>2023-05-07 19:10:38.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 19:14:27.000000</t>
-  </si>
-  <si>
-    <t>2023-05-07 19:21:41.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 02:41:34.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 02:54:02.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 02:57:56.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:11:45.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:15:43.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:21:50.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:23:45.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:25:07.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:25:09.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:27:01.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 10:27:03.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:06:50.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:06:53.000000</t>
-  </si>
-  <si>
-    <t>RIESGOC</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:48:41.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:48:43.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:51:02.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:55:23.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 11:57:41.000000</t>
-  </si>
-  <si>
-    <t>RIESGO A</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:01:31.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:01:33.000000</t>
-  </si>
-  <si>
-    <t>RIESGO C</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:01:35.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:03:07.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:03:10.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:03:11.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:04:46.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:04:48.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:04:50.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:05:56.000000</t>
-  </si>
-  <si>
-    <t>MUY PROBABLE</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:07:53.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:07:55.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:07:56.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:25:00.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:25:02.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:25:03.000000</t>
-  </si>
-  <si>
-    <t>BAJO</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:27:20.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:27:22.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:39:51.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:39:55.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:39:56.000000</t>
-  </si>
-  <si>
-    <t>RIESGO D</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:39:59.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:41:05.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:51:04.000000</t>
-  </si>
-  <si>
-    <t>medio</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:53:32.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:53:35.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:53:37.000000</t>
-  </si>
-  <si>
-    <t>RIESGO E</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:53:38.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:55:47.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:55:49.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:56:21.000000</t>
-  </si>
-  <si>
-    <t>2023-05-08 18:57:21.000000</t>
+    <t>MODERADO</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:34:52.000000</t>
+  </si>
+  <si>
+    <t>RiesgoD</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:34:56.000000</t>
+  </si>
+  <si>
+    <t>RiesgoE</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:03.000000</t>
+  </si>
+  <si>
+    <t>RiesgoF</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:07.000000</t>
+  </si>
+  <si>
+    <t>RiesgoG</t>
+  </si>
+  <si>
+    <t>POSIBLE</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:12.000000</t>
+  </si>
+  <si>
+    <t>RiesgoH</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:17.000000</t>
+  </si>
+  <si>
+    <t>RiesgoI</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:21.000000</t>
+  </si>
+  <si>
+    <t>RiesgoJ</t>
+  </si>
+  <si>
+    <t>MENOR</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:35:23.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:41:35.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:41:41.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:41:52.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:41:58.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:42:04.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:42:08.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:42:14.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:42:19.000000</t>
+  </si>
+  <si>
+    <t>2023-04-28 11:42:22.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:55.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:56.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:57.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:58.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:40:59.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:00.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:01.000000</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:41:03.000000</t>
+  </si>
+  <si>
+    <t>asdada</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:29.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:30.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:31.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:32.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:33.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:34.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:35.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 16:44:36.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:11.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:16.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:54:17.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:11.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:16.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:17.000000</t>
+  </si>
+  <si>
+    <t>2023-05-03 18:57:18.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:35.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:37.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:38.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:39.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:40.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:41.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:42.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:43.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:44.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:46.000000</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:47.000000</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2023-05-04 18:50:48.000000</t>
+  </si>
+  <si>
+    <t>ASD1231</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:56.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:57.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:58.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:02:59.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:00.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:01.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:03.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:04.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:05.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:06.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:07.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:03:08.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:38.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:39.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:40.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:41.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:42.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:43.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:44.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:45.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:47.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:48.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:49.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:05:50.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:02.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:03.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:05.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:06.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:07.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:08.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:09.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:10.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:12.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:13.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:14.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:15.000000</t>
+  </si>
+  <si>
+    <t>2023-05-04 19:08:16.000000</t>
+  </si>
+  <si>
+    <t>ASDA</t>
+  </si>
+  <si>
+    <t>2023-05-07 18:55:27.000000</t>
+  </si>
+  <si>
+    <t>2023-05-08 15:04:00.000000</t>
   </si>
 </sst>
 </file>
@@ -698,7 +869,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A6" sqref="A6:T6"/>
@@ -810,7 +981,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -831,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -858,21 +1029,21 @@
         <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -893,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -908,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
         <v>32</v>
@@ -920,21 +1091,21 @@
         <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -955,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -970,33 +1141,33 @@
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1017,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
         <v>27</v>
@@ -1032,33 +1203,33 @@
         <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1079,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
@@ -1094,33 +1265,33 @@
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1141,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
@@ -1156,7 +1327,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
         <v>32</v>
@@ -1168,21 +1339,21 @@
         <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1203,7 +1374,7 @@
         <v>26</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
@@ -1218,33 +1389,33 @@
         <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1265,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -1280,33 +1451,33 @@
         <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>1000</v>
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14">
-        <v>2.5</v>
-      </c>
-      <c r="R14">
-        <v>500</v>
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1327,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -1342,33 +1513,33 @@
         <v>30</v>
       </c>
       <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>1000</v>
-      </c>
       <c r="P15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15">
-        <v>2.5</v>
-      </c>
-      <c r="R15">
-        <v>500</v>
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1389,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
@@ -1404,33 +1575,33 @@
         <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>1000</v>
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16">
-        <v>2.5</v>
-      </c>
-      <c r="R16">
-        <v>500</v>
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1451,7 +1622,7 @@
         <v>26</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
         <v>27</v>
@@ -1466,33 +1637,29 @@
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>1000</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R17">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1513,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
@@ -1528,33 +1695,29 @@
         <v>30</v>
       </c>
       <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18">
+        <v>4.5</v>
+      </c>
+      <c r="R18">
+        <v>7500</v>
+      </c>
+      <c r="S18" t="s">
         <v>44</v>
       </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>1000</v>
-      </c>
-      <c r="P18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18">
-        <v>2.5</v>
-      </c>
-      <c r="R18">
-        <v>500</v>
-      </c>
-      <c r="S18" t="s">
-        <v>32</v>
-      </c>
       <c r="T18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1575,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -1590,33 +1753,29 @@
         <v>30</v>
       </c>
       <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>30000</v>
+      </c>
+      <c r="S19" t="s">
         <v>44</v>
       </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>1000</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" t="s">
-        <v>36</v>
-      </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1637,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -1652,33 +1811,29 @@
         <v>30</v>
       </c>
       <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="s">
         <v>44</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>5</v>
       </c>
-      <c r="O20">
-        <v>1000</v>
-      </c>
-      <c r="P20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" t="s">
-        <v>35</v>
+      <c r="R20">
+        <v>7500</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1699,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -1714,33 +1869,29 @@
         <v>30</v>
       </c>
       <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" t="s">
         <v>44</v>
       </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>1000</v>
-      </c>
-      <c r="P21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>35</v>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>11250</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1761,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -1776,33 +1927,29 @@
         <v>30</v>
       </c>
       <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22">
+        <v>4.5</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+      <c r="S22" t="s">
         <v>44</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>1000</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" t="s">
-        <v>36</v>
-      </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1823,7 +1970,7 @@
         <v>26</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
         <v>27</v>
@@ -1838,33 +1985,29 @@
         <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>1000</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
       <c r="P23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="Q23">
+        <v>2.5</v>
+      </c>
+      <c r="R23">
+        <v>2500</v>
       </c>
       <c r="S23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1885,7 +2028,7 @@
         <v>26</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
@@ -1900,33 +2043,29 @@
         <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" t="s">
-        <v>33</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
       <c r="P24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>3750</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1947,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -1962,33 +2101,29 @@
         <v>30</v>
       </c>
       <c r="M25" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" t="s">
         <v>44</v>
       </c>
-      <c r="N25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>35</v>
+      <c r="Q25">
+        <v>1.5</v>
+      </c>
+      <c r="R25">
+        <v>2000</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -2009,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
         <v>27</v>
@@ -2024,33 +2159,29 @@
         <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" t="s">
-        <v>33</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="Q26">
+        <v>4.5</v>
+      </c>
+      <c r="R26">
+        <v>1250</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -2071,7 +2202,7 @@
         <v>26</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
@@ -2086,33 +2217,33 @@
         <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N27" t="s">
         <v>32</v>
       </c>
       <c r="O27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
         <v>35</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>35</v>
-      </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -2133,7 +2264,7 @@
         <v>26</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
         <v>27</v>
@@ -2148,33 +2279,33 @@
         <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
-      </c>
-      <c r="O28">
-        <v>2000</v>
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>33</v>
       </c>
       <c r="P28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28">
-        <v>2.5</v>
-      </c>
-      <c r="R28">
-        <v>1000</v>
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2195,7 +2326,7 @@
         <v>26</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -2210,33 +2341,33 @@
         <v>30</v>
       </c>
       <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" t="s">
         <v>44</v>
       </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
-      <c r="O29">
-        <v>1000</v>
-      </c>
-      <c r="P29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="R29">
-        <v>500</v>
-      </c>
-      <c r="S29" t="s">
-        <v>32</v>
-      </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -2257,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -2272,33 +2403,33 @@
         <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="O30">
-        <v>1000</v>
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30">
-        <v>2.5</v>
-      </c>
-      <c r="R30">
-        <v>1000</v>
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
       </c>
       <c r="S30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -2319,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
         <v>27</v>
@@ -2334,33 +2465,33 @@
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
         <v>35</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>36</v>
       </c>
-      <c r="Q31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" t="s">
-        <v>35</v>
-      </c>
       <c r="S31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -2381,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -2396,33 +2527,33 @@
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
         <v>32</v>
       </c>
       <c r="O32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" t="s">
         <v>35</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" t="s">
-        <v>35</v>
-      </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -2443,7 +2574,7 @@
         <v>26</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -2458,33 +2589,33 @@
         <v>30</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="s">
         <v>35</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" t="s">
-        <v>35</v>
-      </c>
       <c r="S33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -2505,7 +2636,7 @@
         <v>26</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -2520,33 +2651,33 @@
         <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O34" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" t="s">
         <v>35</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>36</v>
       </c>
-      <c r="Q34">
-        <v>2.5</v>
-      </c>
-      <c r="R34">
-        <v>1000</v>
-      </c>
       <c r="S34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -2567,7 +2698,7 @@
         <v>26</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -2579,36 +2710,36 @@
         <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
         <v>35</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>36</v>
       </c>
-      <c r="Q35">
-        <v>2.5</v>
-      </c>
-      <c r="R35">
-        <v>1000</v>
-      </c>
       <c r="S35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -2629,7 +2760,7 @@
         <v>26</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -2644,33 +2775,33 @@
         <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
         <v>32</v>
       </c>
       <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" t="s">
         <v>35</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>36</v>
       </c>
-      <c r="Q36">
-        <v>2.5</v>
-      </c>
-      <c r="R36">
-        <v>2000</v>
-      </c>
       <c r="S36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -2691,48 +2822,48 @@
         <v>26</v>
       </c>
       <c r="H37">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" t="s">
-        <v>35</v>
+      <c r="O37">
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="S37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -2753,7 +2884,7 @@
         <v>26</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -2768,33 +2899,29 @@
         <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q38">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R38">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="S38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -2815,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -2830,33 +2957,29 @@
         <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>67</v>
-      </c>
-      <c r="N39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="P39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q39">
+        <v>4.5</v>
+      </c>
+      <c r="R39">
+        <v>7500</v>
       </c>
       <c r="S39" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T39" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2877,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -2892,33 +3015,29 @@
         <v>30</v>
       </c>
       <c r="M40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" t="s">
-        <v>33</v>
-      </c>
-      <c r="O40" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
       <c r="P40" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" t="s">
-        <v>35</v>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>30000</v>
       </c>
       <c r="S40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T40" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2939,7 +3058,7 @@
         <v>26</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -2954,33 +3073,29 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" t="s">
-        <v>35</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>7500</v>
       </c>
       <c r="S41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T41" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -3001,7 +3116,7 @@
         <v>26</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -3016,33 +3131,29 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" t="s">
-        <v>35</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
       <c r="P42" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q42">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>2000</v>
+        <v>11250</v>
       </c>
       <c r="S42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -3063,7 +3174,7 @@
         <v>26</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -3078,33 +3189,29 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" t="s">
-        <v>35</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43" t="s">
         <v>34</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R43">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="S43" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
@@ -3125,7 +3232,7 @@
         <v>26</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -3140,33 +3247,29 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>70</v>
-      </c>
-      <c r="N44" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" t="s">
-        <v>35</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
       <c r="P44" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
       </c>
       <c r="R44">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="S44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -3187,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -3202,33 +3305,29 @@
         <v>30</v>
       </c>
       <c r="M45" t="s">
-        <v>70</v>
-      </c>
-      <c r="N45" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" t="s">
-        <v>35</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>2000</v>
+        <v>3750</v>
       </c>
       <c r="S45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -3249,7 +3348,7 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -3261,36 +3360,32 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46">
-        <v>5</v>
-      </c>
-      <c r="O46">
-        <v>4000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="Q46">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R46">
         <v>2000</v>
       </c>
       <c r="S46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -3311,7 +3406,7 @@
         <v>26</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -3326,33 +3421,29 @@
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47">
-        <v>8</v>
-      </c>
-      <c r="O47">
-        <v>2000</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="Q47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R47">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="S47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3373,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3385,36 +3476,32 @@
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M48" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48">
-        <v>5</v>
-      </c>
-      <c r="O48">
-        <v>2000</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q48">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2000</v>
+        <v>0.5</v>
       </c>
       <c r="S48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -3435,7 +3522,7 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
         <v>27</v>
@@ -3450,33 +3537,33 @@
         <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>67</v>
-      </c>
-      <c r="N49" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <v>20000</v>
       </c>
       <c r="P49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q49">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R49">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="S49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -3497,7 +3584,7 @@
         <v>26</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -3512,33 +3599,33 @@
         <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" t="s">
-        <v>33</v>
-      </c>
-      <c r="O50" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>30000</v>
       </c>
       <c r="P50" t="s">
         <v>34</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R50">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="S50" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -3559,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -3574,95 +3661,95 @@
         <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>30000</v>
       </c>
       <c r="P51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="S51" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T51" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" t="s">
         <v>46</v>
       </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" t="s">
-        <v>67</v>
-      </c>
-      <c r="N52" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" t="s">
-        <v>33</v>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>10000</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>7500</v>
       </c>
       <c r="S52" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -3683,7 +3770,7 @@
         <v>26</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
         <v>27</v>
@@ -3698,33 +3785,33 @@
         <v>30</v>
       </c>
       <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>15000</v>
+      </c>
+      <c r="P53" t="s">
         <v>44</v>
       </c>
-      <c r="N53" t="s">
-        <v>33</v>
-      </c>
-      <c r="O53" t="s">
-        <v>35</v>
-      </c>
-      <c r="P53" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" t="s">
-        <v>35</v>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>11250</v>
       </c>
       <c r="S53" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -3745,7 +3832,7 @@
         <v>26</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
@@ -3760,33 +3847,33 @@
         <v>30</v>
       </c>
       <c r="M54" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>40000</v>
       </c>
       <c r="P54" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q54">
+        <v>4.5</v>
+      </c>
+      <c r="R54">
+        <v>10000</v>
       </c>
       <c r="S54" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -3807,7 +3894,7 @@
         <v>26</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -3822,33 +3909,33 @@
         <v>30</v>
       </c>
       <c r="M55" t="s">
-        <v>67</v>
-      </c>
-      <c r="N55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>10000</v>
       </c>
       <c r="P55" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
       </c>
       <c r="R55">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="S55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T55" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -3869,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -3884,33 +3971,33 @@
         <v>30</v>
       </c>
       <c r="M56" t="s">
-        <v>44</v>
-      </c>
-      <c r="N56" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="N56">
+        <v>8</v>
+      </c>
+      <c r="O56">
+        <v>15000</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>1000</v>
+        <v>3750</v>
       </c>
       <c r="S56" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T56" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -3931,7 +4018,7 @@
         <v>26</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -3943,36 +4030,36 @@
         <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M57" t="s">
-        <v>70</v>
-      </c>
-      <c r="N57" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>8000</v>
       </c>
       <c r="P57" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q57">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R57">
         <v>2000</v>
       </c>
       <c r="S57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="T57" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
@@ -3993,7 +4080,7 @@
         <v>26</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -4008,33 +4095,33 @@
         <v>30</v>
       </c>
       <c r="M58" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O58" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="N58">
+        <v>18</v>
+      </c>
+      <c r="O58">
+        <v>5000</v>
       </c>
       <c r="P58" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R58">
-        <v>9000</v>
+        <v>1250</v>
       </c>
       <c r="S58" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T58" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -4055,48 +4142,48 @@
         <v>26</v>
       </c>
       <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" t="s">
-        <v>29</v>
-      </c>
-      <c r="L59" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" t="s">
-        <v>33</v>
-      </c>
-      <c r="O59" t="s">
-        <v>33</v>
+      <c r="O59">
+        <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q59">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>9000</v>
+        <v>0.5</v>
       </c>
       <c r="S59" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -4117,7 +4204,7 @@
         <v>26</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
         <v>27</v>
@@ -4132,33 +4219,31 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>92</v>
-      </c>
-      <c r="N60" t="s">
-        <v>33</v>
-      </c>
-      <c r="O60" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60">
+        <v>20000</v>
       </c>
       <c r="P60" t="s">
         <v>34</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R60">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="S60" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -4179,7 +4264,7 @@
         <v>26</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
         <v>27</v>
@@ -4194,33 +4279,31 @@
         <v>30</v>
       </c>
       <c r="M61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61">
+        <v>30000</v>
+      </c>
+      <c r="P61" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61">
+        <v>4.5</v>
+      </c>
+      <c r="R61">
+        <v>7500</v>
+      </c>
+      <c r="S61" t="s">
         <v>44</v>
       </c>
-      <c r="N61" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" t="s">
-        <v>35</v>
-      </c>
-      <c r="P61" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" t="s">
-        <v>35</v>
-      </c>
-      <c r="S61" t="s">
-        <v>36</v>
-      </c>
       <c r="T61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -4241,7 +4324,7 @@
         <v>26</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
         <v>27</v>
@@ -4256,33 +4339,31 @@
         <v>30</v>
       </c>
       <c r="M62" t="s">
-        <v>70</v>
-      </c>
-      <c r="N62" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62">
+        <v>30000</v>
       </c>
       <c r="P62" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>30000</v>
       </c>
       <c r="S62" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -4303,7 +4384,7 @@
         <v>26</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -4318,33 +4399,31 @@
         <v>30</v>
       </c>
       <c r="M63" t="s">
-        <v>92</v>
-      </c>
-      <c r="N63" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63">
+        <v>10000</v>
       </c>
       <c r="P63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>7500</v>
       </c>
       <c r="S63" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="T63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -4365,7 +4444,7 @@
         <v>26</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -4380,33 +4459,31 @@
         <v>30</v>
       </c>
       <c r="M64" t="s">
-        <v>100</v>
-      </c>
-      <c r="N64" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64">
+        <v>15000</v>
       </c>
       <c r="P64" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>11250</v>
       </c>
       <c r="S64" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4427,7 +4504,7 @@
         <v>26</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
         <v>27</v>
@@ -4442,33 +4519,31 @@
         <v>30</v>
       </c>
       <c r="M65" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65">
+        <v>40000</v>
+      </c>
+      <c r="P65" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>10000</v>
+      </c>
+      <c r="S65" t="s">
         <v>44</v>
       </c>
-      <c r="N65" t="s">
-        <v>33</v>
-      </c>
-      <c r="O65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P65" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q65">
-        <v>4</v>
-      </c>
-      <c r="R65">
-        <v>1000</v>
-      </c>
-      <c r="S65" t="s">
-        <v>33</v>
-      </c>
       <c r="T65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -4489,7 +4564,7 @@
         <v>26</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
         <v>27</v>
@@ -4504,33 +4579,31 @@
         <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>92</v>
-      </c>
-      <c r="N66" t="s">
-        <v>33</v>
-      </c>
-      <c r="O66" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66">
+        <v>10000</v>
       </c>
       <c r="P66" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R66">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="S66" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4551,7 +4624,7 @@
         <v>26</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
         <v>27</v>
@@ -4566,33 +4639,31 @@
         <v>30</v>
       </c>
       <c r="M67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N67" t="s">
-        <v>33</v>
-      </c>
-      <c r="O67" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67">
+        <v>15000</v>
       </c>
       <c r="P67" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>2000</v>
+        <v>3750</v>
       </c>
       <c r="S67" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -4613,7 +4684,7 @@
         <v>26</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
         <v>27</v>
@@ -4625,36 +4696,34 @@
         <v>29</v>
       </c>
       <c r="L68" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M68" t="s">
-        <v>92</v>
-      </c>
-      <c r="N68" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68">
+        <v>8000</v>
       </c>
       <c r="P68" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="R68">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="S68" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -4675,43 +4744,3697 @@
         <v>26</v>
       </c>
       <c r="H69">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69">
+        <v>5000</v>
+      </c>
+      <c r="P69" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q69">
+        <v>4.5</v>
+      </c>
+      <c r="R69">
+        <v>1250</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="s">
+        <v>81</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>0.5</v>
+      </c>
+      <c r="S70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>20000</v>
+      </c>
+      <c r="P71" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q71">
+        <v>3.75</v>
+      </c>
+      <c r="R71">
+        <v>5000</v>
+      </c>
+      <c r="S71" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72">
+        <v>18</v>
+      </c>
+      <c r="O72">
+        <v>30000</v>
+      </c>
+      <c r="P72" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q72">
+        <v>4.5</v>
+      </c>
+      <c r="R72">
+        <v>7500</v>
+      </c>
+      <c r="S72" t="s">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73">
+        <v>8</v>
+      </c>
+      <c r="O73">
+        <v>30000</v>
+      </c>
+      <c r="P73" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>30000</v>
+      </c>
+      <c r="S73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>10000</v>
+      </c>
+      <c r="P74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>7500</v>
+      </c>
+      <c r="S74" t="s">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>15000</v>
+      </c>
+      <c r="P75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>11250</v>
+      </c>
+      <c r="S75" t="s">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" t="s">
+        <v>50</v>
+      </c>
+      <c r="N76">
+        <v>18</v>
+      </c>
+      <c r="O76">
+        <v>40000</v>
+      </c>
+      <c r="P76" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76">
+        <v>4.5</v>
+      </c>
+      <c r="R76">
+        <v>10000</v>
+      </c>
+      <c r="S76" t="s">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77">
+        <v>10</v>
+      </c>
+      <c r="O77">
+        <v>10000</v>
+      </c>
+      <c r="P77" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2500</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" t="s">
+        <v>55</v>
+      </c>
+      <c r="N78">
+        <v>8</v>
+      </c>
+      <c r="O78">
+        <v>15000</v>
+      </c>
+      <c r="P78" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>3750</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>8000</v>
+      </c>
+      <c r="P79" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79">
+        <v>1.5</v>
+      </c>
+      <c r="R79">
+        <v>2000</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" t="s">
+        <v>59</v>
+      </c>
+      <c r="N80">
+        <v>18</v>
+      </c>
+      <c r="O80">
+        <v>5000</v>
+      </c>
+      <c r="P80" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q80">
+        <v>4.5</v>
+      </c>
+      <c r="R80">
+        <v>1250</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
+      <c r="M81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" t="s">
-        <v>29</v>
-      </c>
-      <c r="L69" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" t="s">
-        <v>92</v>
-      </c>
-      <c r="N69" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" t="s">
-        <v>33</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81">
+        <v>0.25</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>0.5</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" t="s">
+        <v>30</v>
+      </c>
+      <c r="M83" t="s">
+        <v>119</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83">
+        <v>0.25</v>
+      </c>
+      <c r="R83">
+        <v>0.5</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" t="s">
+        <v>119</v>
+      </c>
+      <c r="L84" t="s">
+        <v>78</v>
+      </c>
+      <c r="M84" t="s">
+        <v>121</v>
+      </c>
+      <c r="N84" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="s">
         <v>34</v>
       </c>
-      <c r="Q69">
+      <c r="Q84">
+        <v>0.5</v>
+      </c>
+      <c r="R84">
+        <v>0.5</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85">
+        <v>15</v>
+      </c>
+      <c r="O85">
+        <v>20000</v>
+      </c>
+      <c r="P85" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q85">
+        <v>3.75</v>
+      </c>
+      <c r="R85">
+        <v>5000</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" t="s">
+        <v>30</v>
+      </c>
+      <c r="M86" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86">
+        <v>18</v>
+      </c>
+      <c r="O86">
+        <v>30000</v>
+      </c>
+      <c r="P86" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86">
+        <v>4.5</v>
+      </c>
+      <c r="R86">
+        <v>7500</v>
+      </c>
+      <c r="S86" t="s">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87">
+        <v>8</v>
+      </c>
+      <c r="O87">
+        <v>30000</v>
+      </c>
+      <c r="P87" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>30000</v>
+      </c>
+      <c r="S87" t="s">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" t="s">
+        <v>46</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>10000</v>
+      </c>
+      <c r="P88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>7500</v>
+      </c>
+      <c r="S88" t="s">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89">
+        <v>132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" t="s">
+        <v>30</v>
+      </c>
+      <c r="M89" t="s">
+        <v>48</v>
+      </c>
+      <c r="N89">
         <v>4</v>
       </c>
-      <c r="R69">
-        <v>9000</v>
-      </c>
-      <c r="S69" t="s">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s">
-        <v>105</v>
+      <c r="O89">
+        <v>15000</v>
+      </c>
+      <c r="P89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>11250</v>
+      </c>
+      <c r="S89" t="s">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90">
+        <v>23</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" t="s">
+        <v>30</v>
+      </c>
+      <c r="M90" t="s">
+        <v>50</v>
+      </c>
+      <c r="N90">
+        <v>18</v>
+      </c>
+      <c r="O90">
+        <v>40000</v>
+      </c>
+      <c r="P90" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90">
+        <v>4.5</v>
+      </c>
+      <c r="R90">
+        <v>10000</v>
+      </c>
+      <c r="S90" t="s">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>23</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M91" t="s">
+        <v>52</v>
+      </c>
+      <c r="N91">
+        <v>10</v>
+      </c>
+      <c r="O91">
+        <v>10000</v>
+      </c>
+      <c r="P91" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q91">
+        <v>2.5</v>
+      </c>
+      <c r="R91">
+        <v>2500</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" t="s">
+        <v>29</v>
+      </c>
+      <c r="L92" t="s">
+        <v>30</v>
+      </c>
+      <c r="M92" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92">
+        <v>8</v>
+      </c>
+      <c r="O92">
+        <v>15000</v>
+      </c>
+      <c r="P92" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>3750</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93">
+        <v>136</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93">
+        <v>23</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93" t="s">
+        <v>78</v>
+      </c>
+      <c r="M93" t="s">
+        <v>57</v>
+      </c>
+      <c r="N93">
+        <v>6</v>
+      </c>
+      <c r="O93">
+        <v>8000</v>
+      </c>
+      <c r="P93" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q93">
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <v>2000</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94">
+        <v>137</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" t="s">
+        <v>29</v>
+      </c>
+      <c r="L94" t="s">
+        <v>30</v>
+      </c>
+      <c r="M94" t="s">
+        <v>59</v>
+      </c>
+      <c r="N94">
+        <v>18</v>
+      </c>
+      <c r="O94">
+        <v>5000</v>
+      </c>
+      <c r="P94" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q94">
+        <v>4.5</v>
+      </c>
+      <c r="R94">
+        <v>1250</v>
+      </c>
+      <c r="S94" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95">
+        <v>24</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M95" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95">
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <v>0.5</v>
+      </c>
+      <c r="S95" t="s">
+        <v>37</v>
+      </c>
+      <c r="T95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96">
+        <v>23</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" t="s">
+        <v>117</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q96">
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <v>0.5</v>
+      </c>
+      <c r="S96" t="s">
+        <v>37</v>
+      </c>
+      <c r="T96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" t="s">
+        <v>119</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <v>0.5</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98">
+        <v>23</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" t="s">
+        <v>119</v>
+      </c>
+      <c r="L98" t="s">
+        <v>78</v>
+      </c>
+      <c r="M98" t="s">
+        <v>121</v>
+      </c>
+      <c r="N98" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q98">
+        <v>0.5</v>
+      </c>
+      <c r="R98">
+        <v>0.5</v>
+      </c>
+      <c r="S98" t="s">
+        <v>37</v>
+      </c>
+      <c r="T98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99">
+        <v>142</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+      <c r="O99">
+        <v>20000</v>
+      </c>
+      <c r="P99" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q99">
+        <v>3.75</v>
+      </c>
+      <c r="R99">
+        <v>5000</v>
+      </c>
+      <c r="S99" t="s">
+        <v>37</v>
+      </c>
+      <c r="T99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100">
+        <v>23</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" t="s">
+        <v>29</v>
+      </c>
+      <c r="L100" t="s">
+        <v>30</v>
+      </c>
+      <c r="M100" t="s">
+        <v>39</v>
+      </c>
+      <c r="N100">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>30000</v>
+      </c>
+      <c r="P100" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100">
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <v>7500</v>
+      </c>
+      <c r="S100" t="s">
+        <v>44</v>
+      </c>
+      <c r="T100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101">
+        <v>144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101">
+        <v>23</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" t="s">
+        <v>29</v>
+      </c>
+      <c r="L101" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101">
+        <v>8</v>
+      </c>
+      <c r="O101">
+        <v>30000</v>
+      </c>
+      <c r="P101" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>30000</v>
+      </c>
+      <c r="S101" t="s">
+        <v>44</v>
+      </c>
+      <c r="T101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102">
+        <v>145</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102">
+        <v>23</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" t="s">
+        <v>29</v>
+      </c>
+      <c r="L102" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>10000</v>
+      </c>
+      <c r="P102" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <v>7500</v>
+      </c>
+      <c r="S102" t="s">
+        <v>44</v>
+      </c>
+      <c r="T102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>28</v>
+      </c>
+      <c r="K103" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" t="s">
+        <v>48</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>15000</v>
+      </c>
+      <c r="P103" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>11250</v>
+      </c>
+      <c r="S103" t="s">
+        <v>44</v>
+      </c>
+      <c r="T103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104">
+        <v>23</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>29</v>
+      </c>
+      <c r="L104" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" t="s">
+        <v>50</v>
+      </c>
+      <c r="N104">
+        <v>18</v>
+      </c>
+      <c r="O104">
+        <v>40000</v>
+      </c>
+      <c r="P104" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104">
+        <v>4.5</v>
+      </c>
+      <c r="R104">
+        <v>10000</v>
+      </c>
+      <c r="S104" t="s">
+        <v>44</v>
+      </c>
+      <c r="T104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>28</v>
+      </c>
+      <c r="K105" t="s">
+        <v>29</v>
+      </c>
+      <c r="L105" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" t="s">
+        <v>52</v>
+      </c>
+      <c r="N105">
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>10000</v>
+      </c>
+      <c r="P105" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q105">
+        <v>2.5</v>
+      </c>
+      <c r="R105">
+        <v>2500</v>
+      </c>
+      <c r="S105" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106">
+        <v>149</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" t="s">
+        <v>55</v>
+      </c>
+      <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
+        <v>15000</v>
+      </c>
+      <c r="P106" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>3750</v>
+      </c>
+      <c r="S106" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>23</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" t="s">
+        <v>78</v>
+      </c>
+      <c r="M107" t="s">
+        <v>57</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <v>8000</v>
+      </c>
+      <c r="P107" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q107">
+        <v>1.5</v>
+      </c>
+      <c r="R107">
+        <v>2000</v>
+      </c>
+      <c r="S107" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108">
+        <v>23</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" t="s">
+        <v>59</v>
+      </c>
+      <c r="N108">
+        <v>18</v>
+      </c>
+      <c r="O108">
+        <v>5000</v>
+      </c>
+      <c r="P108" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q108">
+        <v>4.5</v>
+      </c>
+      <c r="R108">
+        <v>1250</v>
+      </c>
+      <c r="S108" t="s">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" t="s">
+        <v>78</v>
+      </c>
+      <c r="M109" t="s">
+        <v>81</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109">
+        <v>0.25</v>
+      </c>
+      <c r="R109">
+        <v>0.5</v>
+      </c>
+      <c r="S109" t="s">
+        <v>37</v>
+      </c>
+      <c r="T109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110">
+        <v>23</v>
+      </c>
+      <c r="I110" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" t="s">
+        <v>117</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110">
+        <v>0.25</v>
+      </c>
+      <c r="R110">
+        <v>0.5</v>
+      </c>
+      <c r="S110" t="s">
+        <v>37</v>
+      </c>
+      <c r="T110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111">
+        <v>0.25</v>
+      </c>
+      <c r="R111">
+        <v>0.5</v>
+      </c>
+      <c r="S111" t="s">
+        <v>37</v>
+      </c>
+      <c r="T111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112">
+        <v>23</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" t="s">
+        <v>28</v>
+      </c>
+      <c r="K112" t="s">
+        <v>119</v>
+      </c>
+      <c r="L112" t="s">
+        <v>78</v>
+      </c>
+      <c r="M112" t="s">
+        <v>121</v>
+      </c>
+      <c r="N112" t="s">
+        <v>35</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>0.5</v>
+      </c>
+      <c r="S112" t="s">
+        <v>37</v>
+      </c>
+      <c r="T112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113">
+        <v>15</v>
+      </c>
+      <c r="O113">
+        <v>20000</v>
+      </c>
+      <c r="P113" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113">
+        <v>3.75</v>
+      </c>
+      <c r="R113">
+        <v>5000</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+      <c r="T113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114">
+        <v>23</v>
+      </c>
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+      <c r="O114">
+        <v>30000</v>
+      </c>
+      <c r="P114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q114">
+        <v>4.5</v>
+      </c>
+      <c r="R114">
+        <v>7500</v>
+      </c>
+      <c r="S114" t="s">
+        <v>44</v>
+      </c>
+      <c r="T114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115">
+        <v>23</v>
+      </c>
+      <c r="I115" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>29</v>
+      </c>
+      <c r="L115" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115">
+        <v>8</v>
+      </c>
+      <c r="O115">
+        <v>30000</v>
+      </c>
+      <c r="P115" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>30000</v>
+      </c>
+      <c r="S115" t="s">
+        <v>44</v>
+      </c>
+      <c r="T115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" t="s">
+        <v>46</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116">
+        <v>10000</v>
+      </c>
+      <c r="P116" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>7500</v>
+      </c>
+      <c r="S116" t="s">
+        <v>44</v>
+      </c>
+      <c r="T116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117">
+        <v>23</v>
+      </c>
+      <c r="I117" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" t="s">
+        <v>28</v>
+      </c>
+      <c r="K117" t="s">
+        <v>29</v>
+      </c>
+      <c r="L117" t="s">
+        <v>30</v>
+      </c>
+      <c r="M117" t="s">
+        <v>48</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>15000</v>
+      </c>
+      <c r="P117" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q117">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>11250</v>
+      </c>
+      <c r="S117" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>23</v>
+      </c>
+      <c r="I118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" t="s">
+        <v>28</v>
+      </c>
+      <c r="K118" t="s">
+        <v>29</v>
+      </c>
+      <c r="L118" t="s">
+        <v>30</v>
+      </c>
+      <c r="M118" t="s">
+        <v>50</v>
+      </c>
+      <c r="N118">
+        <v>18</v>
+      </c>
+      <c r="O118">
+        <v>40000</v>
+      </c>
+      <c r="P118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118">
+        <v>4.5</v>
+      </c>
+      <c r="R118">
+        <v>10000</v>
+      </c>
+      <c r="S118" t="s">
+        <v>44</v>
+      </c>
+      <c r="T118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" t="s">
+        <v>29</v>
+      </c>
+      <c r="L119" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119" t="s">
+        <v>52</v>
+      </c>
+      <c r="N119">
+        <v>10</v>
+      </c>
+      <c r="O119">
+        <v>10000</v>
+      </c>
+      <c r="P119" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q119">
+        <v>2.5</v>
+      </c>
+      <c r="R119">
+        <v>2500</v>
+      </c>
+      <c r="S119" t="s">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" t="s">
+        <v>28</v>
+      </c>
+      <c r="K120" t="s">
+        <v>29</v>
+      </c>
+      <c r="L120" t="s">
+        <v>30</v>
+      </c>
+      <c r="M120" t="s">
+        <v>55</v>
+      </c>
+      <c r="N120">
+        <v>8</v>
+      </c>
+      <c r="O120">
+        <v>15000</v>
+      </c>
+      <c r="P120" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>3750</v>
+      </c>
+      <c r="S120" t="s">
+        <v>37</v>
+      </c>
+      <c r="T120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121">
+        <v>23</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" t="s">
+        <v>29</v>
+      </c>
+      <c r="L121" t="s">
+        <v>78</v>
+      </c>
+      <c r="M121" t="s">
+        <v>57</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121">
+        <v>8000</v>
+      </c>
+      <c r="P121" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q121">
+        <v>1.5</v>
+      </c>
+      <c r="R121">
+        <v>2000</v>
+      </c>
+      <c r="S121" t="s">
+        <v>37</v>
+      </c>
+      <c r="T121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122">
+        <v>23</v>
+      </c>
+      <c r="I122" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" t="s">
+        <v>30</v>
+      </c>
+      <c r="M122" t="s">
+        <v>59</v>
+      </c>
+      <c r="N122">
+        <v>18</v>
+      </c>
+      <c r="O122">
+        <v>5000</v>
+      </c>
+      <c r="P122" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q122">
+        <v>4.5</v>
+      </c>
+      <c r="R122">
+        <v>1250</v>
+      </c>
+      <c r="S122" t="s">
+        <v>37</v>
+      </c>
+      <c r="T122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123">
+        <v>166</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>24</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123" t="s">
+        <v>78</v>
+      </c>
+      <c r="M123" t="s">
+        <v>81</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>0.5</v>
+      </c>
+      <c r="S123" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124">
+        <v>167</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124">
+        <v>23</v>
+      </c>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" t="s">
+        <v>29</v>
+      </c>
+      <c r="L124" t="s">
+        <v>30</v>
+      </c>
+      <c r="M124" t="s">
+        <v>117</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>0.5</v>
+      </c>
+      <c r="S124" t="s">
+        <v>37</v>
+      </c>
+      <c r="T124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>28</v>
+      </c>
+      <c r="K125" t="s">
+        <v>29</v>
+      </c>
+      <c r="L125" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" t="s">
+        <v>119</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>2</v>
+      </c>
+      <c r="P125" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>0.5</v>
+      </c>
+      <c r="S125" t="s">
+        <v>37</v>
+      </c>
+      <c r="T125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126">
+        <v>23</v>
+      </c>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+      <c r="K126" t="s">
+        <v>119</v>
+      </c>
+      <c r="L126" t="s">
+        <v>78</v>
+      </c>
+      <c r="M126" t="s">
+        <v>121</v>
+      </c>
+      <c r="N126" t="s">
+        <v>35</v>
+      </c>
+      <c r="O126" t="s">
+        <v>60</v>
+      </c>
+      <c r="P126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>0.5</v>
+      </c>
+      <c r="S126" t="s">
+        <v>37</v>
+      </c>
+      <c r="T126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127">
+        <v>170</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>23</v>
+      </c>
+      <c r="I127" t="s">
+        <v>27</v>
+      </c>
+      <c r="J127" t="s">
+        <v>28</v>
+      </c>
+      <c r="K127" t="s">
+        <v>29</v>
+      </c>
+      <c r="L127" t="s">
+        <v>30</v>
+      </c>
+      <c r="M127" t="s">
+        <v>160</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127">
+        <v>2</v>
+      </c>
+      <c r="P127" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q127">
+        <v>0.5</v>
+      </c>
+      <c r="R127">
+        <v>0.5</v>
+      </c>
+      <c r="S127" t="s">
+        <v>37</v>
+      </c>
+      <c r="T127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128">
+        <v>171</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128">
+        <v>23</v>
+      </c>
+      <c r="I128" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" t="s">
+        <v>28</v>
+      </c>
+      <c r="K128" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" t="s">
+        <v>30</v>
+      </c>
+      <c r="M128" t="s">
+        <v>160</v>
+      </c>
+      <c r="N128" t="s">
+        <v>35</v>
+      </c>
+      <c r="O128" t="s">
+        <v>36</v>
+      </c>
+      <c r="P128" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>35</v>
+      </c>
+      <c r="R128" t="s">
+        <v>36</v>
+      </c>
+      <c r="S128" t="s">
+        <v>37</v>
+      </c>
+      <c r="T128" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
